--- a/Documentation/4.0 Planning/4.1 Gantt Charts/Gantt Chart v3.2.xlsx
+++ b/Documentation/4.0 Planning/4.1 Gantt Charts/Gantt Chart v3.2.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="26055" yWindow="825" windowWidth="29040" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="26060" yWindow="820" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="139">
   <si>
     <t>Documentation</t>
   </si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t>Why WebApp/Android?</t>
+  </si>
+  <si>
+    <t>Profile page???</t>
   </si>
 </sst>
 </file>
@@ -865,7 +868,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -946,6 +949,8 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -955,8 +960,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="224">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1490,16 +1494,16 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1508,7 +1512,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1519,7 +1523,7 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1528,7 +1532,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
@@ -1541,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
@@ -1554,7 +1558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
         <v>8</v>
@@ -1563,7 +1567,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
@@ -1576,7 +1580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
@@ -1589,7 +1593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -1602,7 +1606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
@@ -1611,7 +1615,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="2" t="s">
@@ -1624,7 +1628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="2" t="s">
@@ -1637,7 +1641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -1650,7 +1654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>19</v>
@@ -1659,7 +1663,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="2" t="s">
@@ -1672,7 +1676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="2" t="s">
@@ -1683,7 +1687,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17" s="1" t="s">
         <v>23</v>
@@ -1692,7 +1696,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
@@ -1705,7 +1709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
@@ -1718,7 +1722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20" s="1" t="s">
         <v>26</v>
@@ -1727,7 +1731,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
@@ -1740,7 +1744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="1" t="s">
         <v>28</v>
@@ -1749,7 +1753,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
@@ -1762,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
@@ -1775,7 +1779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
         <v>31</v>
@@ -1784,7 +1788,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="3"/>
       <c r="C26" s="2" t="s">
@@ -1797,7 +1801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="3"/>
       <c r="C27" s="2" t="s">
@@ -1810,7 +1814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="3"/>
       <c r="C28" s="2" t="s">
@@ -1823,21 +1827,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
@@ -1846,7 +1850,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -1855,7 +1859,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="2" t="s">
@@ -1864,7 +1868,7 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
@@ -1873,7 +1877,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
@@ -1882,14 +1886,14 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="2"/>
       <c r="B37" s="1" t="s">
         <v>40</v>
@@ -1898,7 +1902,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
@@ -1907,7 +1911,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
@@ -1916,7 +1920,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
@@ -1925,7 +1929,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
@@ -1934,7 +1938,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="1" t="s">
         <v>45</v>
@@ -1943,7 +1947,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="1" t="s">
         <v>46</v>
@@ -1952,7 +1956,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5">
       <c r="A44" s="3"/>
       <c r="B44" s="1" t="s">
         <v>47</v>
@@ -1961,7 +1965,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="3"/>
       <c r="B45" s="1" t="s">
         <v>48</v>
@@ -1970,7 +1974,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="1" t="s">
         <v>49</v>
@@ -1979,7 +1983,7 @@
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
@@ -1988,7 +1992,7 @@
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="1" t="s">
         <v>36</v>
@@ -1997,7 +2001,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="2" t="s">
@@ -2006,7 +2010,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="2" t="s">
@@ -2015,7 +2019,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="2" t="s">
@@ -2024,7 +2028,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5">
       <c r="A52" s="3"/>
       <c r="B52" s="1" t="s">
         <v>51</v>
@@ -2033,7 +2037,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5">
       <c r="A53" s="3"/>
       <c r="B53" s="1" t="s">
         <v>52</v>
@@ -2042,7 +2046,7 @@
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5">
       <c r="A54" s="3"/>
       <c r="B54" s="1" t="s">
         <v>53</v>
@@ -2051,7 +2055,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5">
       <c r="A55" s="3"/>
       <c r="B55" s="1" t="s">
         <v>54</v>
@@ -2060,7 +2064,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5">
       <c r="A56" s="3"/>
       <c r="B56" s="1" t="s">
         <v>55</v>
@@ -2081,70 +2085,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM157"/>
+  <dimension ref="A1:AM158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="C61" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B36" sqref="B36"/>
+      <selection pane="bottomRight" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="5"/>
-    <col min="2" max="2" width="58.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="5"/>
+    <col min="2" max="2" width="58.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="12" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="23" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.7109375" style="5" customWidth="1"/>
-    <col min="25" max="25" width="12.85546875" style="5" customWidth="1"/>
-    <col min="26" max="26" width="13.140625" style="5" customWidth="1"/>
-    <col min="27" max="34" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="13.140625" style="5" customWidth="1"/>
-    <col min="36" max="36" width="13.7109375" style="5" customWidth="1"/>
-    <col min="37" max="37" width="12.42578125" style="5" customWidth="1"/>
-    <col min="38" max="38" width="13.28515625" style="5" customWidth="1"/>
-    <col min="39" max="16384" width="8.85546875" style="5"/>
+    <col min="6" max="13" width="15.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.6640625" style="5" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="13.1640625" style="5" customWidth="1"/>
+    <col min="27" max="34" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="13.1640625" style="5" customWidth="1"/>
+    <col min="36" max="36" width="13.6640625" style="5" customWidth="1"/>
+    <col min="37" max="37" width="12.5" style="5" customWidth="1"/>
+    <col min="38" max="38" width="13.33203125" style="5" customWidth="1"/>
+    <col min="39" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:39" ht="20">
+      <c r="A1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="42"/>
-    </row>
-    <row r="2" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="44"/>
+    </row>
+    <row r="2" spans="1:39" ht="20">
       <c r="A2" s="25"/>
       <c r="B2" s="33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" ht="20">
       <c r="A3" s="25"/>
       <c r="B3" s="29"/>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:39" ht="21" x14ac:dyDescent="0.35">
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:39" ht="20">
       <c r="A4" s="25"/>
       <c r="B4" s="28"/>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="6" spans="1:39" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="6" spans="1:39" s="21" customFormat="1" ht="54">
+      <c r="A6" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="17" t="s">
         <v>59</v>
       </c>
@@ -2255,7 +2259,7 @@
       </c>
       <c r="AM6" s="17"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="6" t="s">
         <v>58</v>
       </c>
@@ -2304,7 +2308,7 @@
       <c r="AK7" s="14"/>
       <c r="AL7" s="14"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="8"/>
       <c r="B8" s="6" t="s">
         <v>1</v>
@@ -2344,7 +2348,7 @@
       <c r="AK8" s="14"/>
       <c r="AL8" s="14"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="8"/>
       <c r="B9" s="6" t="s">
         <v>3</v>
@@ -2393,7 +2397,7 @@
       <c r="AK9" s="14"/>
       <c r="AL9" s="14"/>
     </row>
-    <row r="10" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" outlineLevel="1">
       <c r="A10" s="8"/>
       <c r="B10" s="7" t="s">
         <v>4</v>
@@ -2442,7 +2446,7 @@
       <c r="AK10" s="14"/>
       <c r="AL10" s="14"/>
     </row>
-    <row r="11" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" outlineLevel="1">
       <c r="A11" s="8"/>
       <c r="B11" s="7" t="s">
         <v>6</v>
@@ -2491,7 +2495,7 @@
       <c r="AK11" s="14"/>
       <c r="AL11" s="14"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
         <v>8</v>
@@ -2540,7 +2544,7 @@
       <c r="AK12" s="14"/>
       <c r="AL12" s="14"/>
     </row>
-    <row r="13" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" outlineLevel="1">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>9</v>
@@ -2589,7 +2593,7 @@
       <c r="AK13" s="14"/>
       <c r="AL13" s="14"/>
     </row>
-    <row r="14" spans="1:39" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" outlineLevel="1">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>11</v>
@@ -2638,7 +2642,7 @@
       <c r="AK14" s="14"/>
       <c r="AL14" s="14"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="7"/>
       <c r="B15" s="6" t="s">
         <v>62</v>
@@ -2687,7 +2691,7 @@
       <c r="AK15" s="14"/>
       <c r="AL15" s="14"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
         <v>14</v>
@@ -2736,7 +2740,7 @@
       <c r="AK16" s="14"/>
       <c r="AL16" s="14"/>
     </row>
-    <row r="17" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" outlineLevel="1">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
         <v>15</v>
@@ -2785,7 +2789,7 @@
       <c r="AK17" s="14"/>
       <c r="AL17" s="14"/>
     </row>
-    <row r="18" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" outlineLevel="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7" t="s">
         <v>16</v>
@@ -2834,7 +2838,7 @@
       <c r="AK18" s="14"/>
       <c r="AL18" s="14"/>
     </row>
-    <row r="19" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" outlineLevel="1">
       <c r="A19" s="7"/>
       <c r="B19" s="6" t="s">
         <v>71</v>
@@ -2883,7 +2887,7 @@
       <c r="AK19" s="14"/>
       <c r="AL19" s="14"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20" s="7"/>
       <c r="B20" s="6" t="s">
         <v>19</v>
@@ -2932,7 +2936,7 @@
       <c r="AK20" s="14"/>
       <c r="AL20" s="14"/>
     </row>
-    <row r="21" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" outlineLevel="1">
       <c r="A21" s="8"/>
       <c r="B21" s="7" t="s">
         <v>134</v>
@@ -2981,7 +2985,7 @@
       <c r="AK21" s="14"/>
       <c r="AL21" s="14"/>
     </row>
-    <row r="22" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" outlineLevel="1">
       <c r="A22" s="8"/>
       <c r="B22" s="7" t="s">
         <v>132</v>
@@ -3030,7 +3034,7 @@
       <c r="AK22" s="14"/>
       <c r="AL22" s="14"/>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23" s="7"/>
       <c r="B23" s="6" t="s">
         <v>23</v>
@@ -3079,7 +3083,7 @@
       <c r="AK23" s="14"/>
       <c r="AL23" s="14"/>
     </row>
-    <row r="24" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" outlineLevel="1">
       <c r="A24" s="8"/>
       <c r="B24" s="7" t="s">
         <v>136</v>
@@ -3128,7 +3132,7 @@
       <c r="AK24" s="14"/>
       <c r="AL24" s="14"/>
     </row>
-    <row r="25" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" outlineLevel="1">
       <c r="A25" s="8"/>
       <c r="B25" s="7" t="s">
         <v>25</v>
@@ -3177,7 +3181,7 @@
       <c r="AK25" s="14"/>
       <c r="AL25" s="14"/>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26" s="7"/>
       <c r="B26" s="6" t="s">
         <v>26</v>
@@ -3226,7 +3230,7 @@
       <c r="AK26" s="14"/>
       <c r="AL26" s="14"/>
     </row>
-    <row r="27" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" outlineLevel="1">
       <c r="A27" s="8"/>
       <c r="B27" s="7" t="s">
         <v>27</v>
@@ -3275,7 +3279,7 @@
       <c r="AK27" s="14"/>
       <c r="AL27" s="14"/>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28" s="7"/>
       <c r="B28" s="6" t="s">
         <v>28</v>
@@ -3324,7 +3328,7 @@
       <c r="AK28" s="14"/>
       <c r="AL28" s="14"/>
     </row>
-    <row r="29" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" outlineLevel="1">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
         <v>29</v>
@@ -3373,7 +3377,7 @@
       <c r="AK29" s="14"/>
       <c r="AL29" s="14"/>
     </row>
-    <row r="30" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" outlineLevel="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>30</v>
@@ -3422,7 +3426,7 @@
       <c r="AK30" s="14"/>
       <c r="AL30" s="14"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31" s="9"/>
       <c r="B31" s="6" t="s">
         <v>31</v>
@@ -3471,7 +3475,7 @@
       <c r="AK31" s="14"/>
       <c r="AL31" s="14"/>
     </row>
-    <row r="32" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" outlineLevel="1">
       <c r="A32" s="9"/>
       <c r="B32" s="7" t="s">
         <v>32</v>
@@ -3520,7 +3524,7 @@
       <c r="AK32" s="14"/>
       <c r="AL32" s="14"/>
     </row>
-    <row r="33" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" outlineLevel="1">
       <c r="A33" s="9"/>
       <c r="B33" s="7" t="s">
         <v>133</v>
@@ -3569,7 +3573,7 @@
       <c r="AK33" s="14"/>
       <c r="AL33" s="14"/>
     </row>
-    <row r="34" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" outlineLevel="1">
       <c r="A34" s="9"/>
       <c r="B34" s="7" t="s">
         <v>137</v>
@@ -3618,7 +3622,7 @@
       <c r="AK34" s="14"/>
       <c r="AL34" s="14"/>
     </row>
-    <row r="35" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" outlineLevel="1">
       <c r="A35" s="9"/>
       <c r="B35" s="6" t="s">
         <v>72</v>
@@ -3667,7 +3671,7 @@
       <c r="AK35" s="14"/>
       <c r="AL35" s="14"/>
     </row>
-    <row r="36" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" outlineLevel="1">
       <c r="A36" s="9"/>
       <c r="B36" s="6" t="s">
         <v>73</v>
@@ -3716,7 +3720,7 @@
       <c r="AK36" s="14"/>
       <c r="AL36" s="14"/>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
@@ -3765,7 +3769,7 @@
       <c r="AK37" s="14"/>
       <c r="AL37" s="14"/>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38" s="8"/>
       <c r="B38" s="6" t="s">
         <v>36</v>
@@ -3814,7 +3818,7 @@
       <c r="AK38" s="14"/>
       <c r="AL38" s="14"/>
     </row>
-    <row r="39" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" outlineLevel="1">
       <c r="A39" s="8"/>
       <c r="B39" s="7" t="s">
         <v>37</v>
@@ -3863,7 +3867,7 @@
       <c r="AK39" s="14"/>
       <c r="AL39" s="14"/>
     </row>
-    <row r="40" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" outlineLevel="1">
       <c r="A40" s="8"/>
       <c r="B40" s="7" t="s">
         <v>38</v>
@@ -3912,7 +3916,7 @@
       <c r="AK40" s="14"/>
       <c r="AL40" s="14"/>
     </row>
-    <row r="41" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" outlineLevel="1">
       <c r="A41" s="8"/>
       <c r="B41" s="7" t="s">
         <v>75</v>
@@ -3961,7 +3965,7 @@
       <c r="AK41" s="14"/>
       <c r="AL41" s="14"/>
     </row>
-    <row r="42" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" outlineLevel="1">
       <c r="A42" s="8"/>
       <c r="B42" s="7" t="s">
         <v>39</v>
@@ -4010,7 +4014,7 @@
       <c r="AK42" s="14"/>
       <c r="AL42" s="14"/>
     </row>
-    <row r="43" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" outlineLevel="1">
       <c r="A43" s="8"/>
       <c r="B43" s="7" t="s">
         <v>74</v>
@@ -4059,7 +4063,7 @@
       <c r="AK43" s="14"/>
       <c r="AL43" s="14"/>
     </row>
-    <row r="44" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" outlineLevel="1">
       <c r="A44" s="8"/>
       <c r="B44" s="6" t="s">
         <v>76</v>
@@ -4108,7 +4112,7 @@
       <c r="AK44" s="14"/>
       <c r="AL44" s="14"/>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45" s="7"/>
       <c r="B45" s="6" t="s">
         <v>40</v>
@@ -4157,7 +4161,7 @@
       <c r="AK45" s="14"/>
       <c r="AL45" s="14"/>
     </row>
-    <row r="46" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" outlineLevel="1">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
         <v>41</v>
@@ -4206,7 +4210,7 @@
       <c r="AK46" s="14"/>
       <c r="AL46" s="14"/>
     </row>
-    <row r="47" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" outlineLevel="1">
       <c r="A47" s="8"/>
       <c r="B47" s="7" t="s">
         <v>42</v>
@@ -4255,7 +4259,7 @@
       <c r="AK47" s="14"/>
       <c r="AL47" s="14"/>
     </row>
-    <row r="48" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" outlineLevel="1">
       <c r="A48" s="8"/>
       <c r="B48" s="7" t="s">
         <v>43</v>
@@ -4304,7 +4308,7 @@
       <c r="AK48" s="14"/>
       <c r="AL48" s="14"/>
     </row>
-    <row r="49" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" outlineLevel="1">
       <c r="A49" s="8"/>
       <c r="B49" s="7" t="s">
         <v>44</v>
@@ -4353,7 +4357,7 @@
       <c r="AK49" s="14"/>
       <c r="AL49" s="14"/>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50" s="8"/>
       <c r="B50" s="6" t="s">
         <v>45</v>
@@ -4402,7 +4406,7 @@
       <c r="AK50" s="14"/>
       <c r="AL50" s="14"/>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51" s="8"/>
       <c r="B51" s="6" t="s">
         <v>46</v>
@@ -4451,7 +4455,7 @@
       <c r="AK51" s="14"/>
       <c r="AL51" s="14"/>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52" s="8"/>
       <c r="B52" s="6" t="s">
         <v>47</v>
@@ -4500,7 +4504,7 @@
       <c r="AK52" s="14"/>
       <c r="AL52" s="14"/>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53" s="8"/>
       <c r="B53" s="28" t="s">
         <v>80</v>
@@ -4549,7 +4553,7 @@
       <c r="AK53" s="14"/>
       <c r="AL53" s="14"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54" s="8"/>
       <c r="B54" s="28" t="s">
         <v>83</v>
@@ -4598,7 +4602,7 @@
       <c r="AK54" s="14"/>
       <c r="AL54" s="14"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55" s="8"/>
       <c r="B55" s="6" t="s">
         <v>49</v>
@@ -4647,7 +4651,7 @@
       <c r="AK55" s="14"/>
       <c r="AL55" s="14"/>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56" s="6" t="s">
         <v>50</v>
       </c>
@@ -4696,7 +4700,7 @@
       <c r="AK56" s="14"/>
       <c r="AL56" s="14"/>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
         <v>36</v>
@@ -4745,7 +4749,7 @@
       <c r="AK57" s="14"/>
       <c r="AL57" s="14"/>
     </row>
-    <row r="58" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" outlineLevel="1">
       <c r="A58" s="8"/>
       <c r="B58" s="7" t="s">
         <v>37</v>
@@ -4794,7 +4798,7 @@
       <c r="AK58" s="14"/>
       <c r="AL58" s="14"/>
     </row>
-    <row r="59" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" outlineLevel="1">
       <c r="A59" s="8"/>
       <c r="B59" s="7" t="s">
         <v>38</v>
@@ -4843,7 +4847,7 @@
       <c r="AK59" s="14"/>
       <c r="AL59" s="14"/>
     </row>
-    <row r="60" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" outlineLevel="1">
       <c r="A60" s="8"/>
       <c r="B60" s="7" t="s">
         <v>21</v>
@@ -4892,7 +4896,7 @@
       <c r="AK60" s="14"/>
       <c r="AL60" s="14"/>
     </row>
-    <row r="61" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" outlineLevel="1">
       <c r="A61" s="8"/>
       <c r="B61" s="7" t="s">
         <v>39</v>
@@ -4941,7 +4945,7 @@
       <c r="AK61" s="14"/>
       <c r="AL61" s="14"/>
     </row>
-    <row r="62" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" outlineLevel="1">
       <c r="A62" s="8"/>
       <c r="B62" s="7" t="s">
         <v>74</v>
@@ -4990,7 +4994,7 @@
       <c r="AK62" s="14"/>
       <c r="AL62" s="14"/>
     </row>
-    <row r="63" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" outlineLevel="1">
       <c r="A63" s="8"/>
       <c r="B63" s="29" t="s">
         <v>80</v>
@@ -5039,7 +5043,7 @@
       <c r="AK63" s="14"/>
       <c r="AL63" s="14"/>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64" s="8"/>
       <c r="B64" s="29" t="s">
         <v>82</v>
@@ -5088,7 +5092,7 @@
       <c r="AK64" s="14"/>
       <c r="AL64" s="14"/>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65" s="8"/>
       <c r="B65" s="28" t="s">
         <v>81</v>
@@ -5137,7 +5141,7 @@
       <c r="AK65" s="14"/>
       <c r="AL65" s="14"/>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66" s="8"/>
       <c r="B66" s="6" t="s">
         <v>54</v>
@@ -5186,7 +5190,7 @@
       <c r="AK66" s="14"/>
       <c r="AL66" s="14"/>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67" s="8"/>
       <c r="B67" s="6" t="s">
         <v>55</v>
@@ -5235,7 +5239,7 @@
       <c r="AK67" s="14"/>
       <c r="AL67" s="14"/>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68" s="12" t="s">
         <v>63</v>
       </c>
@@ -5283,7 +5287,7 @@
       <c r="AK68" s="14"/>
       <c r="AL68" s="14"/>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="B69" s="6" t="s">
         <v>36</v>
       </c>
@@ -5331,7 +5335,7 @@
       <c r="AK69" s="14"/>
       <c r="AL69" s="14"/>
     </row>
-    <row r="70" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" outlineLevel="1">
       <c r="B70" s="7" t="s">
         <v>37</v>
       </c>
@@ -5379,7 +5383,7 @@
       <c r="AK70" s="14"/>
       <c r="AL70" s="14"/>
     </row>
-    <row r="71" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" outlineLevel="1">
       <c r="B71" s="7" t="s">
         <v>38</v>
       </c>
@@ -5427,7 +5431,7 @@
       <c r="AK71" s="14"/>
       <c r="AL71" s="14"/>
     </row>
-    <row r="72" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" outlineLevel="1">
       <c r="B72" s="7" t="s">
         <v>39</v>
       </c>
@@ -5475,7 +5479,7 @@
       <c r="AK72" s="14"/>
       <c r="AL72" s="14"/>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="B73" s="23" t="s">
         <v>74</v>
       </c>
@@ -5523,7 +5527,7 @@
       <c r="AK73" s="14"/>
       <c r="AL73" s="14"/>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="B74" s="30" t="s">
         <v>84</v>
       </c>
@@ -5571,7 +5575,7 @@
       <c r="AK74" s="14"/>
       <c r="AL74" s="14"/>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="B75" s="32" t="s">
         <v>93</v>
       </c>
@@ -5579,7 +5583,7 @@
         <v>41939</v>
       </c>
       <c r="D75" s="10">
-        <f t="shared" ref="D75:D138" si="2">E75-C75</f>
+        <f t="shared" ref="D75:D139" si="2">E75-C75</f>
         <v>14</v>
       </c>
       <c r="E75" s="11">
@@ -5619,7 +5623,7 @@
       <c r="AK75" s="14"/>
       <c r="AL75" s="14"/>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="B76" s="30" t="s">
         <v>93</v>
       </c>
@@ -5667,20 +5671,12 @@
       <c r="AK76" s="14"/>
       <c r="AL76" s="14"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B77" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="11">
-        <v>41939</v>
-      </c>
-      <c r="D77" s="10">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="E77" s="11">
-        <v>41953</v>
-      </c>
+    <row r="77" spans="1:38">
+      <c r="B77" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="10"/>
+      <c r="E77" s="11"/>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
@@ -5715,19 +5711,19 @@
       <c r="AK77" s="14"/>
       <c r="AL77" s="14"/>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A78" s="26" t="s">
-        <v>79</v>
+    <row r="78" spans="1:38">
+      <c r="B78" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="C78" s="11">
-        <v>41953</v>
+        <v>41939</v>
       </c>
       <c r="D78" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E78" s="11">
-        <v>41967</v>
+        <v>41953</v>
       </c>
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
@@ -5741,10 +5737,10 @@
       <c r="O78" s="37"/>
       <c r="P78" s="38"/>
       <c r="Q78" s="38"/>
-      <c r="R78" s="38"/>
-      <c r="S78" s="38"/>
-      <c r="T78" s="15"/>
-      <c r="U78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+      <c r="T78" s="38"/>
+      <c r="U78" s="38"/>
       <c r="V78" s="14"/>
       <c r="W78" s="14"/>
       <c r="X78" s="14"/>
@@ -5763,20 +5759,19 @@
       <c r="AK78" s="14"/>
       <c r="AL78" s="14"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A79" s="26"/>
-      <c r="B79" s="6" t="s">
-        <v>36</v>
+    <row r="79" spans="1:38">
+      <c r="A79" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="C79" s="11">
         <v>41953</v>
       </c>
       <c r="D79" s="10">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E79" s="11">
-        <v>41960</v>
+        <v>41967</v>
       </c>
       <c r="F79" s="14"/>
       <c r="G79" s="14"/>
@@ -5812,10 +5807,10 @@
       <c r="AK79" s="14"/>
       <c r="AL79" s="14"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38">
       <c r="A80" s="26"/>
-      <c r="B80" s="7" t="s">
-        <v>37</v>
+      <c r="B80" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C80" s="11">
         <v>41953</v>
@@ -5861,10 +5856,10 @@
       <c r="AK80" s="14"/>
       <c r="AL80" s="14"/>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38">
       <c r="A81" s="26"/>
       <c r="B81" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C81" s="11">
         <v>41953</v>
@@ -5910,10 +5905,10 @@
       <c r="AK81" s="14"/>
       <c r="AL81" s="14"/>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38">
       <c r="A82" s="26"/>
       <c r="B82" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C82" s="11">
         <v>41953</v>
@@ -5959,10 +5954,10 @@
       <c r="AK82" s="14"/>
       <c r="AL82" s="14"/>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38">
       <c r="A83" s="26"/>
       <c r="B83" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C83" s="11">
         <v>41953</v>
@@ -6008,10 +6003,10 @@
       <c r="AK83" s="14"/>
       <c r="AL83" s="14"/>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38">
       <c r="A84" s="26"/>
       <c r="B84" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C84" s="11">
         <v>41953</v>
@@ -6057,19 +6052,20 @@
       <c r="AK84" s="14"/>
       <c r="AL84" s="14"/>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B85" s="31" t="s">
-        <v>85</v>
+    <row r="85" spans="1:38">
+      <c r="A85" s="26"/>
+      <c r="B85" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C85" s="11">
         <v>41953</v>
       </c>
       <c r="D85" s="10">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E85" s="11">
-        <v>41967</v>
+        <v>41960</v>
       </c>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
@@ -6105,9 +6101,9 @@
       <c r="AK85" s="14"/>
       <c r="AL85" s="14"/>
     </row>
-    <row r="86" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38">
       <c r="B86" s="31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="11">
         <v>41953</v>
@@ -6153,9 +6149,9 @@
       <c r="AK86" s="14"/>
       <c r="AL86" s="14"/>
     </row>
-    <row r="87" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38">
       <c r="B87" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" s="11">
         <v>41953</v>
@@ -6201,9 +6197,9 @@
       <c r="AK87" s="14"/>
       <c r="AL87" s="14"/>
     </row>
-    <row r="88" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B88" s="30" t="s">
-        <v>85</v>
+    <row r="88" spans="1:38">
+      <c r="B88" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="C88" s="11">
         <v>41953</v>
@@ -6249,9 +6245,9 @@
       <c r="AK88" s="14"/>
       <c r="AL88" s="14"/>
     </row>
-    <row r="89" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38">
       <c r="B89" s="30" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="11">
         <v>41953</v>
@@ -6297,9 +6293,9 @@
       <c r="AK89" s="14"/>
       <c r="AL89" s="14"/>
     </row>
-    <row r="90" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38">
       <c r="B90" s="30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="11">
         <v>41953</v>
@@ -6345,19 +6341,19 @@
       <c r="AK90" s="14"/>
       <c r="AL90" s="14"/>
     </row>
-    <row r="91" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A91" s="26" t="s">
-        <v>88</v>
+    <row r="91" spans="1:38">
+      <c r="B91" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="C91" s="11">
-        <v>41967</v>
+        <v>41953</v>
       </c>
       <c r="D91" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E91" s="11">
-        <v>41981</v>
+        <v>41967</v>
       </c>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
@@ -6373,10 +6369,10 @@
       <c r="Q91" s="38"/>
       <c r="R91" s="38"/>
       <c r="S91" s="38"/>
-      <c r="T91" s="38"/>
-      <c r="U91" s="38"/>
-      <c r="V91" s="15"/>
-      <c r="W91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="14"/>
+      <c r="W91" s="14"/>
       <c r="X91" s="14"/>
       <c r="Y91" s="14"/>
       <c r="Z91" s="14"/>
@@ -6393,20 +6389,19 @@
       <c r="AK91" s="14"/>
       <c r="AL91" s="14"/>
     </row>
-    <row r="92" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A92" s="26"/>
-      <c r="B92" s="6" t="s">
-        <v>36</v>
+    <row r="92" spans="1:38">
+      <c r="A92" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="C92" s="11">
         <v>41967</v>
       </c>
       <c r="D92" s="10">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E92" s="11">
-        <v>41974</v>
+        <v>41981</v>
       </c>
       <c r="F92" s="14"/>
       <c r="G92" s="14"/>
@@ -6442,10 +6437,10 @@
       <c r="AK92" s="14"/>
       <c r="AL92" s="14"/>
     </row>
-    <row r="93" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38">
       <c r="A93" s="26"/>
-      <c r="B93" s="7" t="s">
-        <v>37</v>
+      <c r="B93" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C93" s="11">
         <v>41967</v>
@@ -6491,10 +6486,10 @@
       <c r="AK93" s="14"/>
       <c r="AL93" s="14"/>
     </row>
-    <row r="94" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38">
       <c r="A94" s="26"/>
       <c r="B94" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C94" s="11">
         <v>41967</v>
@@ -6540,10 +6535,10 @@
       <c r="AK94" s="14"/>
       <c r="AL94" s="14"/>
     </row>
-    <row r="95" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38">
       <c r="A95" s="26"/>
       <c r="B95" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C95" s="11">
         <v>41967</v>
@@ -6589,10 +6584,10 @@
       <c r="AK95" s="14"/>
       <c r="AL95" s="14"/>
     </row>
-    <row r="96" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38">
       <c r="A96" s="26"/>
       <c r="B96" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C96" s="11">
         <v>41967</v>
@@ -6638,10 +6633,10 @@
       <c r="AK96" s="14"/>
       <c r="AL96" s="14"/>
     </row>
-    <row r="97" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38">
       <c r="A97" s="26"/>
       <c r="B97" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C97" s="11">
         <v>41967</v>
@@ -6687,19 +6682,20 @@
       <c r="AK97" s="14"/>
       <c r="AL97" s="14"/>
     </row>
-    <row r="98" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B98" s="32" t="s">
-        <v>89</v>
+    <row r="98" spans="1:38">
+      <c r="A98" s="26"/>
+      <c r="B98" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C98" s="11">
         <v>41967</v>
       </c>
       <c r="D98" s="10">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E98" s="11">
-        <v>41981</v>
+        <v>41974</v>
       </c>
       <c r="F98" s="14"/>
       <c r="G98" s="14"/>
@@ -6735,9 +6731,9 @@
       <c r="AK98" s="14"/>
       <c r="AL98" s="14"/>
     </row>
-    <row r="99" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38">
       <c r="B99" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C99" s="11">
         <v>41967</v>
@@ -6783,9 +6779,9 @@
       <c r="AK99" s="14"/>
       <c r="AL99" s="14"/>
     </row>
-    <row r="100" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38">
       <c r="B100" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" s="11">
         <v>41967</v>
@@ -6831,9 +6827,9 @@
       <c r="AK100" s="14"/>
       <c r="AL100" s="14"/>
     </row>
-    <row r="101" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B101" s="30" t="s">
-        <v>89</v>
+    <row r="101" spans="1:38">
+      <c r="B101" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="C101" s="11">
         <v>41967</v>
@@ -6879,9 +6875,9 @@
       <c r="AK101" s="14"/>
       <c r="AL101" s="14"/>
     </row>
-    <row r="102" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:38">
       <c r="B102" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="11">
         <v>41967</v>
@@ -6927,9 +6923,9 @@
       <c r="AK102" s="14"/>
       <c r="AL102" s="14"/>
     </row>
-    <row r="103" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:38">
       <c r="B103" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C103" s="11">
         <v>41967</v>
@@ -6975,19 +6971,19 @@
       <c r="AK103" s="14"/>
       <c r="AL103" s="14"/>
     </row>
-    <row r="104" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A104" s="26" t="s">
-        <v>92</v>
+    <row r="104" spans="1:38">
+      <c r="B104" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="C104" s="11">
-        <v>41981</v>
+        <v>41967</v>
       </c>
       <c r="D104" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E104" s="11">
-        <v>41995</v>
+        <v>41981</v>
       </c>
       <c r="F104" s="14"/>
       <c r="G104" s="14"/>
@@ -7005,10 +7001,10 @@
       <c r="S104" s="38"/>
       <c r="T104" s="38"/>
       <c r="U104" s="38"/>
-      <c r="V104" s="14"/>
-      <c r="W104" s="14"/>
-      <c r="X104" s="15"/>
-      <c r="Y104" s="15"/>
+      <c r="V104" s="15"/>
+      <c r="W104" s="15"/>
+      <c r="X104" s="14"/>
+      <c r="Y104" s="14"/>
       <c r="Z104" s="14"/>
       <c r="AA104" s="14"/>
       <c r="AB104" s="14"/>
@@ -7023,20 +7019,19 @@
       <c r="AK104" s="14"/>
       <c r="AL104" s="14"/>
     </row>
-    <row r="105" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A105" s="26"/>
-      <c r="B105" s="6" t="s">
-        <v>36</v>
+    <row r="105" spans="1:38">
+      <c r="A105" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="C105" s="11">
         <v>41981</v>
       </c>
       <c r="D105" s="10">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E105" s="11">
-        <v>41988</v>
+        <v>41995</v>
       </c>
       <c r="F105" s="14"/>
       <c r="G105" s="14"/>
@@ -7072,10 +7067,10 @@
       <c r="AK105" s="14"/>
       <c r="AL105" s="14"/>
     </row>
-    <row r="106" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:38">
       <c r="A106" s="26"/>
-      <c r="B106" s="7" t="s">
-        <v>37</v>
+      <c r="B106" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C106" s="11">
         <v>41981</v>
@@ -7121,10 +7116,10 @@
       <c r="AK106" s="14"/>
       <c r="AL106" s="14"/>
     </row>
-    <row r="107" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:38">
       <c r="A107" s="26"/>
       <c r="B107" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C107" s="11">
         <v>41981</v>
@@ -7170,10 +7165,10 @@
       <c r="AK107" s="14"/>
       <c r="AL107" s="14"/>
     </row>
-    <row r="108" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:38">
       <c r="A108" s="26"/>
       <c r="B108" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C108" s="11">
         <v>41981</v>
@@ -7219,10 +7214,10 @@
       <c r="AK108" s="14"/>
       <c r="AL108" s="14"/>
     </row>
-    <row r="109" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:38">
       <c r="A109" s="26"/>
       <c r="B109" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C109" s="11">
         <v>41981</v>
@@ -7268,10 +7263,10 @@
       <c r="AK109" s="14"/>
       <c r="AL109" s="14"/>
     </row>
-    <row r="110" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:38">
       <c r="A110" s="26"/>
       <c r="B110" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C110" s="11">
         <v>41981</v>
@@ -7317,19 +7312,20 @@
       <c r="AK110" s="14"/>
       <c r="AL110" s="14"/>
     </row>
-    <row r="111" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B111" s="32" t="s">
-        <v>94</v>
+    <row r="111" spans="1:38">
+      <c r="A111" s="26"/>
+      <c r="B111" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C111" s="11">
         <v>41981</v>
       </c>
       <c r="D111" s="10">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E111" s="11">
-        <v>41995</v>
+        <v>41988</v>
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14"/>
@@ -7365,8 +7361,8 @@
       <c r="AK111" s="14"/>
       <c r="AL111" s="14"/>
     </row>
-    <row r="112" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B112" s="30" t="s">
+    <row r="112" spans="1:38">
+      <c r="B112" s="32" t="s">
         <v>94</v>
       </c>
       <c r="C112" s="11">
@@ -7413,9 +7409,9 @@
       <c r="AK112" s="14"/>
       <c r="AL112" s="14"/>
     </row>
-    <row r="113" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B113" s="32" t="s">
-        <v>95</v>
+    <row r="113" spans="1:38">
+      <c r="B113" s="30" t="s">
+        <v>94</v>
       </c>
       <c r="C113" s="11">
         <v>41981</v>
@@ -7461,8 +7457,8 @@
       <c r="AK113" s="14"/>
       <c r="AL113" s="14"/>
     </row>
-    <row r="114" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B114" s="30" t="s">
+    <row r="114" spans="1:38">
+      <c r="B114" s="32" t="s">
         <v>95</v>
       </c>
       <c r="C114" s="11">
@@ -7509,9 +7505,9 @@
       <c r="AK114" s="14"/>
       <c r="AL114" s="14"/>
     </row>
-    <row r="115" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B115" s="32" t="s">
-        <v>96</v>
+    <row r="115" spans="1:38">
+      <c r="B115" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="C115" s="11">
         <v>41981</v>
@@ -7557,8 +7553,8 @@
       <c r="AK115" s="14"/>
       <c r="AL115" s="14"/>
     </row>
-    <row r="116" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B116" s="30" t="s">
+    <row r="116" spans="1:38">
+      <c r="B116" s="32" t="s">
         <v>96</v>
       </c>
       <c r="C116" s="11">
@@ -7605,19 +7601,19 @@
       <c r="AK116" s="14"/>
       <c r="AL116" s="14"/>
     </row>
-    <row r="117" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>97</v>
+    <row r="117" spans="1:38">
+      <c r="B117" s="30" t="s">
+        <v>96</v>
       </c>
       <c r="C117" s="11">
-        <v>41995</v>
+        <v>41981</v>
       </c>
       <c r="D117" s="10">
         <f t="shared" si="2"/>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E117" s="11">
-        <v>42016</v>
+        <v>41995</v>
       </c>
       <c r="F117" s="14"/>
       <c r="G117" s="14"/>
@@ -7637,12 +7633,12 @@
       <c r="U117" s="38"/>
       <c r="V117" s="14"/>
       <c r="W117" s="14"/>
-      <c r="X117" s="14"/>
-      <c r="Y117" s="14"/>
-      <c r="Z117" s="15"/>
-      <c r="AA117" s="15"/>
-      <c r="AB117" s="15"/>
-      <c r="AC117" s="24"/>
+      <c r="X117" s="15"/>
+      <c r="Y117" s="15"/>
+      <c r="Z117" s="14"/>
+      <c r="AA117" s="14"/>
+      <c r="AB117" s="14"/>
+      <c r="AC117" s="14"/>
       <c r="AD117" s="14"/>
       <c r="AE117" s="14"/>
       <c r="AF117" s="14"/>
@@ -7653,9 +7649,9 @@
       <c r="AK117" s="14"/>
       <c r="AL117" s="14"/>
     </row>
-    <row r="118" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B118" s="5" t="s">
-        <v>98</v>
+    <row r="118" spans="1:38">
+      <c r="A118" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C118" s="11">
         <v>41995</v>
@@ -7701,9 +7697,9 @@
       <c r="AK118" s="14"/>
       <c r="AL118" s="14"/>
     </row>
-    <row r="119" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:38">
       <c r="B119" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C119" s="11">
         <v>41995</v>
@@ -7735,11 +7731,11 @@
       <c r="W119" s="14"/>
       <c r="X119" s="14"/>
       <c r="Y119" s="14"/>
-      <c r="Z119" s="14"/>
-      <c r="AA119" s="14"/>
-      <c r="AB119" s="14"/>
-      <c r="AC119" s="15"/>
-      <c r="AD119" s="15"/>
+      <c r="Z119" s="15"/>
+      <c r="AA119" s="15"/>
+      <c r="AB119" s="15"/>
+      <c r="AC119" s="24"/>
+      <c r="AD119" s="14"/>
       <c r="AE119" s="14"/>
       <c r="AF119" s="14"/>
       <c r="AG119" s="14"/>
@@ -7749,19 +7745,19 @@
       <c r="AK119" s="14"/>
       <c r="AL119" s="14"/>
     </row>
-    <row r="120" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A120" s="12" t="s">
-        <v>100</v>
+    <row r="120" spans="1:38">
+      <c r="B120" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="C120" s="11">
-        <v>42016</v>
+        <v>41995</v>
       </c>
       <c r="D120" s="10">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E120" s="11">
-        <v>42030</v>
+        <v>42016</v>
       </c>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
@@ -7797,19 +7793,19 @@
       <c r="AK120" s="14"/>
       <c r="AL120" s="14"/>
     </row>
-    <row r="121" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B121" s="6" t="s">
-        <v>36</v>
+    <row r="121" spans="1:38">
+      <c r="A121" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C121" s="11">
         <v>42016</v>
       </c>
       <c r="D121" s="10">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E121" s="11">
-        <v>42023</v>
+        <v>42030</v>
       </c>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
@@ -7845,9 +7841,9 @@
       <c r="AK121" s="14"/>
       <c r="AL121" s="14"/>
     </row>
-    <row r="122" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B122" s="7" t="s">
-        <v>37</v>
+    <row r="122" spans="1:38">
+      <c r="B122" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="C122" s="11">
         <v>42016</v>
@@ -7893,9 +7889,9 @@
       <c r="AK122" s="14"/>
       <c r="AL122" s="14"/>
     </row>
-    <row r="123" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:38">
       <c r="B123" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C123" s="11">
         <v>42016</v>
@@ -7941,9 +7937,9 @@
       <c r="AK123" s="14"/>
       <c r="AL123" s="14"/>
     </row>
-    <row r="124" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:38">
       <c r="B124" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C124" s="11">
         <v>42016</v>
@@ -7989,9 +7985,9 @@
       <c r="AK124" s="14"/>
       <c r="AL124" s="14"/>
     </row>
-    <row r="125" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:38">
       <c r="B125" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C125" s="11">
         <v>42016</v>
@@ -8037,9 +8033,9 @@
       <c r="AK125" s="14"/>
       <c r="AL125" s="14"/>
     </row>
-    <row r="126" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:38">
       <c r="B126" s="7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C126" s="11">
         <v>42016</v>
@@ -8085,19 +8081,19 @@
       <c r="AK126" s="14"/>
       <c r="AL126" s="14"/>
     </row>
-    <row r="127" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B127" s="32" t="s">
-        <v>101</v>
+    <row r="127" spans="1:38">
+      <c r="B127" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C127" s="11">
         <v>42016</v>
       </c>
       <c r="D127" s="10">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E127" s="11">
-        <v>42030</v>
+        <v>42023</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="14"/>
@@ -8133,8 +8129,8 @@
       <c r="AK127" s="14"/>
       <c r="AL127" s="14"/>
     </row>
-    <row r="128" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B128" s="30" t="s">
+    <row r="128" spans="1:38">
+      <c r="B128" s="32" t="s">
         <v>101</v>
       </c>
       <c r="C128" s="11">
@@ -8181,9 +8177,9 @@
       <c r="AK128" s="14"/>
       <c r="AL128" s="14"/>
     </row>
-    <row r="129" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B129" s="32" t="s">
-        <v>102</v>
+    <row r="129" spans="1:38">
+      <c r="B129" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="C129" s="11">
         <v>42016</v>
@@ -8229,8 +8225,8 @@
       <c r="AK129" s="14"/>
       <c r="AL129" s="14"/>
     </row>
-    <row r="130" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B130" s="30" t="s">
+    <row r="130" spans="1:38">
+      <c r="B130" s="32" t="s">
         <v>102</v>
       </c>
       <c r="C130" s="11">
@@ -8277,9 +8273,9 @@
       <c r="AK130" s="14"/>
       <c r="AL130" s="14"/>
     </row>
-    <row r="131" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B131" s="32" t="s">
-        <v>109</v>
+    <row r="131" spans="1:38">
+      <c r="B131" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="C131" s="11">
         <v>42016</v>
@@ -8325,8 +8321,8 @@
       <c r="AK131" s="14"/>
       <c r="AL131" s="14"/>
     </row>
-    <row r="132" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B132" s="30" t="s">
+    <row r="132" spans="1:38">
+      <c r="B132" s="32" t="s">
         <v>109</v>
       </c>
       <c r="C132" s="11">
@@ -8373,20 +8369,19 @@
       <c r="AK132" s="14"/>
       <c r="AL132" s="14"/>
     </row>
-    <row r="133" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A133" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B133" s="6"/>
+    <row r="133" spans="1:38">
+      <c r="B133" s="30" t="s">
+        <v>109</v>
+      </c>
       <c r="C133" s="11">
-        <v>42030</v>
+        <v>42016</v>
       </c>
       <c r="D133" s="10">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="E133" s="11">
-        <v>42044</v>
+        <v>42030</v>
       </c>
       <c r="F133" s="14"/>
       <c r="G133" s="14"/>
@@ -8411,10 +8406,10 @@
       <c r="Z133" s="14"/>
       <c r="AA133" s="14"/>
       <c r="AB133" s="14"/>
-      <c r="AC133" s="14"/>
-      <c r="AD133" s="14"/>
-      <c r="AE133" s="39"/>
-      <c r="AF133" s="40"/>
+      <c r="AC133" s="15"/>
+      <c r="AD133" s="15"/>
+      <c r="AE133" s="14"/>
+      <c r="AF133" s="14"/>
       <c r="AG133" s="14"/>
       <c r="AH133" s="14"/>
       <c r="AI133" s="14"/>
@@ -8422,20 +8417,20 @@
       <c r="AK133" s="14"/>
       <c r="AL133" s="14"/>
     </row>
-    <row r="134" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A134" s="12"/>
-      <c r="B134" s="35" t="s">
-        <v>36</v>
-      </c>
+    <row r="134" spans="1:38">
+      <c r="A134" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" s="6"/>
       <c r="C134" s="11">
         <v>42030</v>
       </c>
       <c r="D134" s="10">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E134" s="11">
-        <v>42037</v>
+        <v>42044</v>
       </c>
       <c r="F134" s="14"/>
       <c r="G134" s="14"/>
@@ -8471,10 +8466,10 @@
       <c r="AK134" s="14"/>
       <c r="AL134" s="14"/>
     </row>
-    <row r="135" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:38">
       <c r="A135" s="12"/>
-      <c r="B135" s="36" t="s">
-        <v>37</v>
+      <c r="B135" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="C135" s="11">
         <v>42030</v>
@@ -8520,10 +8515,10 @@
       <c r="AK135" s="14"/>
       <c r="AL135" s="14"/>
     </row>
-    <row r="136" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:38">
       <c r="A136" s="12"/>
       <c r="B136" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C136" s="11">
         <v>42030</v>
@@ -8569,10 +8564,10 @@
       <c r="AK136" s="14"/>
       <c r="AL136" s="14"/>
     </row>
-    <row r="137" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:38">
       <c r="A137" s="12"/>
       <c r="B137" s="36" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C137" s="11">
         <v>42030</v>
@@ -8618,10 +8613,10 @@
       <c r="AK137" s="14"/>
       <c r="AL137" s="14"/>
     </row>
-    <row r="138" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:38">
       <c r="A138" s="12"/>
       <c r="B138" s="36" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C138" s="11">
         <v>42030</v>
@@ -8667,16 +8662,16 @@
       <c r="AK138" s="14"/>
       <c r="AL138" s="14"/>
     </row>
-    <row r="139" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:38">
       <c r="A139" s="12"/>
       <c r="B139" s="36" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C139" s="11">
         <v>42030</v>
       </c>
       <c r="D139" s="10">
-        <f t="shared" ref="D139:D155" si="3">E139-C139</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E139" s="11">
@@ -8716,19 +8711,20 @@
       <c r="AK139" s="14"/>
       <c r="AL139" s="14"/>
     </row>
-    <row r="140" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B140" s="32" t="s">
-        <v>107</v>
+    <row r="140" spans="1:38">
+      <c r="A140" s="12"/>
+      <c r="B140" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C140" s="11">
         <v>42030</v>
       </c>
       <c r="D140" s="10">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <f t="shared" ref="D140:D156" si="3">E140-C140</f>
+        <v>7</v>
       </c>
       <c r="E140" s="11">
-        <v>42044</v>
+        <v>42037</v>
       </c>
       <c r="F140" s="14"/>
       <c r="G140" s="14"/>
@@ -8764,8 +8760,8 @@
       <c r="AK140" s="14"/>
       <c r="AL140" s="14"/>
     </row>
-    <row r="141" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B141" s="30" t="s">
+    <row r="141" spans="1:38">
+      <c r="B141" s="32" t="s">
         <v>107</v>
       </c>
       <c r="C141" s="11">
@@ -8812,9 +8808,9 @@
       <c r="AK141" s="14"/>
       <c r="AL141" s="14"/>
     </row>
-    <row r="142" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B142" s="32" t="s">
-        <v>104</v>
+    <row r="142" spans="1:38">
+      <c r="B142" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="C142" s="11">
         <v>42030</v>
@@ -8860,8 +8856,8 @@
       <c r="AK142" s="14"/>
       <c r="AL142" s="14"/>
     </row>
-    <row r="143" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B143" s="30" t="s">
+    <row r="143" spans="1:38">
+      <c r="B143" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C143" s="11">
@@ -8908,9 +8904,9 @@
       <c r="AK143" s="14"/>
       <c r="AL143" s="14"/>
     </row>
-    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B144" s="32" t="s">
-        <v>105</v>
+    <row r="144" spans="1:38">
+      <c r="B144" s="30" t="s">
+        <v>104</v>
       </c>
       <c r="C144" s="11">
         <v>42030</v>
@@ -8956,8 +8952,8 @@
       <c r="AK144" s="14"/>
       <c r="AL144" s="14"/>
     </row>
-    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B145" s="30" t="s">
+    <row r="145" spans="1:38">
+      <c r="B145" s="32" t="s">
         <v>105</v>
       </c>
       <c r="C145" s="11">
@@ -9004,19 +9000,19 @@
       <c r="AK145" s="14"/>
       <c r="AL145" s="14"/>
     </row>
-    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A146" s="12" t="s">
-        <v>106</v>
+    <row r="146" spans="1:38">
+      <c r="B146" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="C146" s="11">
-        <v>42044</v>
+        <v>42030</v>
       </c>
       <c r="D146" s="10">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E146" s="11">
-        <v>42058</v>
+        <v>42044</v>
       </c>
       <c r="F146" s="14"/>
       <c r="G146" s="14"/>
@@ -9043,29 +9039,28 @@
       <c r="AB146" s="14"/>
       <c r="AC146" s="14"/>
       <c r="AD146" s="14"/>
-      <c r="AE146" s="14"/>
-      <c r="AF146" s="14"/>
-      <c r="AG146" s="39"/>
-      <c r="AH146" s="40"/>
+      <c r="AE146" s="39"/>
+      <c r="AF146" s="40"/>
+      <c r="AG146" s="14"/>
+      <c r="AH146" s="14"/>
       <c r="AI146" s="14"/>
       <c r="AJ146" s="14"/>
       <c r="AK146" s="14"/>
       <c r="AL146" s="14"/>
     </row>
-    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A147" s="12"/>
-      <c r="B147" s="35" t="s">
-        <v>36</v>
+    <row r="147" spans="1:38">
+      <c r="A147" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="C147" s="11">
         <v>42044</v>
       </c>
       <c r="D147" s="10">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E147" s="11">
-        <v>42051</v>
+        <v>42058</v>
       </c>
       <c r="F147" s="14"/>
       <c r="G147" s="14"/>
@@ -9101,10 +9096,10 @@
       <c r="AK147" s="14"/>
       <c r="AL147" s="14"/>
     </row>
-    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:38">
       <c r="A148" s="12"/>
-      <c r="B148" s="36" t="s">
-        <v>37</v>
+      <c r="B148" s="35" t="s">
+        <v>36</v>
       </c>
       <c r="C148" s="11">
         <v>42044</v>
@@ -9150,10 +9145,10 @@
       <c r="AK148" s="14"/>
       <c r="AL148" s="14"/>
     </row>
-    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:38">
       <c r="A149" s="12"/>
       <c r="B149" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C149" s="11">
         <v>42044</v>
@@ -9199,10 +9194,10 @@
       <c r="AK149" s="14"/>
       <c r="AL149" s="14"/>
     </row>
-    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:38">
       <c r="A150" s="12"/>
       <c r="B150" s="36" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C150" s="11">
         <v>42044</v>
@@ -9248,10 +9243,10 @@
       <c r="AK150" s="14"/>
       <c r="AL150" s="14"/>
     </row>
-    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:38">
       <c r="A151" s="12"/>
       <c r="B151" s="36" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C151" s="11">
         <v>42044</v>
@@ -9297,10 +9292,10 @@
       <c r="AK151" s="14"/>
       <c r="AL151" s="14"/>
     </row>
-    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:38">
       <c r="A152" s="12"/>
       <c r="B152" s="36" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="C152" s="11">
         <v>42044</v>
@@ -9346,19 +9341,20 @@
       <c r="AK152" s="14"/>
       <c r="AL152" s="14"/>
     </row>
-    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B153" s="32" t="s">
-        <v>108</v>
+    <row r="153" spans="1:38">
+      <c r="A153" s="12"/>
+      <c r="B153" s="36" t="s">
+        <v>74</v>
       </c>
       <c r="C153" s="11">
         <v>42044</v>
       </c>
       <c r="D153" s="10">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E153" s="11">
-        <v>42058</v>
+        <v>42051</v>
       </c>
       <c r="F153" s="14"/>
       <c r="G153" s="14"/>
@@ -9394,8 +9390,8 @@
       <c r="AK153" s="14"/>
       <c r="AL153" s="14"/>
     </row>
-    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B154" s="30" t="s">
+    <row r="154" spans="1:38">
+      <c r="B154" s="32" t="s">
         <v>108</v>
       </c>
       <c r="C154" s="11">
@@ -9442,9 +9438,9 @@
       <c r="AK154" s="14"/>
       <c r="AL154" s="14"/>
     </row>
-    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B155" s="26" t="s">
-        <v>110</v>
+    <row r="155" spans="1:38">
+      <c r="B155" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="C155" s="11">
         <v>42044</v>
@@ -9490,18 +9486,19 @@
       <c r="AK155" s="14"/>
       <c r="AL155" s="14"/>
     </row>
-    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A156" s="26" t="s">
-        <v>135</v>
+    <row r="156" spans="1:38">
+      <c r="B156" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="C156" s="11">
+        <v>42044</v>
+      </c>
+      <c r="D156" s="10">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="E156" s="11">
         <v>42058</v>
-      </c>
-      <c r="D156" s="5">
-        <v>14</v>
-      </c>
-      <c r="E156" s="11">
-        <v>42072</v>
       </c>
       <c r="F156" s="14"/>
       <c r="G156" s="14"/>
@@ -9530,16 +9527,16 @@
       <c r="AD156" s="14"/>
       <c r="AE156" s="14"/>
       <c r="AF156" s="14"/>
-      <c r="AG156" s="45"/>
-      <c r="AH156" s="46"/>
-      <c r="AI156" s="15"/>
-      <c r="AJ156" s="15"/>
+      <c r="AG156" s="39"/>
+      <c r="AH156" s="40"/>
+      <c r="AI156" s="14"/>
+      <c r="AJ156" s="14"/>
       <c r="AK156" s="14"/>
       <c r="AL156" s="14"/>
     </row>
-    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B157" s="26" t="s">
-        <v>78</v>
+    <row r="157" spans="1:38">
+      <c r="A157" s="26" t="s">
+        <v>135</v>
       </c>
       <c r="C157" s="11">
         <v>42058</v>
@@ -9577,12 +9574,59 @@
       <c r="AD157" s="14"/>
       <c r="AE157" s="14"/>
       <c r="AF157" s="14"/>
-      <c r="AG157" s="45"/>
-      <c r="AH157" s="46"/>
+      <c r="AG157" s="42"/>
+      <c r="AH157" s="43"/>
       <c r="AI157" s="15"/>
       <c r="AJ157" s="15"/>
       <c r="AK157" s="14"/>
       <c r="AL157" s="14"/>
+    </row>
+    <row r="158" spans="1:38">
+      <c r="B158" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C158" s="11">
+        <v>42058</v>
+      </c>
+      <c r="D158" s="5">
+        <v>14</v>
+      </c>
+      <c r="E158" s="11">
+        <v>42072</v>
+      </c>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+      <c r="H158" s="14"/>
+      <c r="I158" s="14"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="14"/>
+      <c r="L158" s="14"/>
+      <c r="M158" s="14"/>
+      <c r="N158" s="37"/>
+      <c r="O158" s="37"/>
+      <c r="P158" s="38"/>
+      <c r="Q158" s="38"/>
+      <c r="R158" s="38"/>
+      <c r="S158" s="38"/>
+      <c r="T158" s="38"/>
+      <c r="U158" s="38"/>
+      <c r="V158" s="14"/>
+      <c r="W158" s="14"/>
+      <c r="X158" s="14"/>
+      <c r="Y158" s="14"/>
+      <c r="Z158" s="14"/>
+      <c r="AA158" s="14"/>
+      <c r="AB158" s="14"/>
+      <c r="AC158" s="14"/>
+      <c r="AD158" s="14"/>
+      <c r="AE158" s="14"/>
+      <c r="AF158" s="14"/>
+      <c r="AG158" s="42"/>
+      <c r="AH158" s="43"/>
+      <c r="AI158" s="15"/>
+      <c r="AJ158" s="15"/>
+      <c r="AK158" s="14"/>
+      <c r="AL158" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9592,7 +9636,7 @@
     <mergeCell ref="C4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9607,7 +9651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
